--- a/assignment.5/DearDiaryLog.xlsx
+++ b/assignment.5/DearDiaryLog.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SimoneBetito/Desktop/MSDV/data-structures/assignment.5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0D6CD0-930A-DF40-9CDC-5423D0A68995}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C9564B-EC04-044E-BAA1-095440FF9067}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{E04C9A41-A10A-994A-9106-F7FE7CE8E4C4}"/>
+    <workbookView xWindow="8240" yWindow="6500" windowWidth="20560" windowHeight="10160" xr2:uid="{E04C9A41-A10A-994A-9106-F7FE7CE8E4C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="75">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -75,9 +78,6 @@
     <t>Kurt Vile</t>
   </si>
   <si>
-    <t>On my way to Stats class</t>
-  </si>
-  <si>
     <t>The Hilma Af Klint exhibit at the Guggenheim was so inspiring</t>
   </si>
   <si>
@@ -241,6 +241,18 @@
   </si>
   <si>
     <t>Brooklyn</t>
+  </si>
+  <si>
+    <t>Today I attended a Snail Mail show and the music was amazing.</t>
+  </si>
+  <si>
+    <t>Snail Mail</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>I enjoyed the architecture at a bar in Chinton Hill, Brooklyn</t>
   </si>
 </sst>
 </file>
@@ -603,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A129E97-B7EB-094B-8706-5FBA0A78C9E8}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,13 +684,13 @@
         <v>43383</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -698,7 +710,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -706,7 +718,7 @@
         <v>43387</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -715,7 +727,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -723,16 +735,16 @@
         <v>43392</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -740,16 +752,16 @@
         <v>43393</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -757,16 +769,16 @@
         <v>43396</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -774,7 +786,7 @@
         <v>43397</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -783,7 +795,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -791,13 +803,13 @@
         <v>43398</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -808,16 +820,16 @@
         <v>43401</v>
       </c>
       <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
         <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -825,16 +837,16 @@
         <v>43405</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
         <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -842,10 +854,10 @@
         <v>43406</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -859,16 +871,16 @@
         <v>43407</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -876,16 +888,16 @@
         <v>43408</v>
       </c>
       <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
         <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -893,7 +905,7 @@
         <v>43412</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -902,7 +914,7 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -910,16 +922,16 @@
         <v>43413</v>
       </c>
       <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
         <v>54</v>
       </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -927,16 +939,16 @@
         <v>43413</v>
       </c>
       <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
         <v>48</v>
       </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>49</v>
-      </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -944,16 +956,16 @@
         <v>43414</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -961,16 +973,16 @@
         <v>43415</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -978,16 +990,16 @@
         <v>43416</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -995,16 +1007,16 @@
         <v>43417</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1012,16 +1024,16 @@
         <v>43420</v>
       </c>
       <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
         <v>57</v>
       </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1029,16 +1041,16 @@
         <v>43423</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
       </c>
       <c r="D25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" t="s">
         <v>61</v>
-      </c>
-      <c r="E25" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1046,16 +1058,16 @@
         <v>43424</v>
       </c>
       <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
         <v>63</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
         <v>64</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1063,7 +1075,7 @@
         <v>43426</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1072,7 +1084,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1080,16 +1092,16 @@
         <v>43428</v>
       </c>
       <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
         <v>67</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
         <v>68</v>
-      </c>
-      <c r="D28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1097,7 +1109,7 @@
         <v>43432</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -1106,10 +1118,45 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>43434</v>
+      </c>
+      <c r="B30" t="s">
         <v>71</v>
       </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>43435</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{84E3777D-D95B-CA46-93A9-368D7B607435}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>